--- a/linearization_heuristic_dyn_models/linearization_heuristic_results_5_days.xlsx
+++ b/linearization_heuristic_dyn_models/linearization_heuristic_results_5_days.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,30 +452,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>eta</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>heuristic</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>icus</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>lockdown_freq</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>reward</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>test_freq</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>testing</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>tests</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>xi</t>
         </is>
@@ -486,35 +501,44 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1353.442406503927</v>
+        <v>0.05077243387518601</v>
       </c>
       <c r="C2" t="n">
         <v>0.5</v>
       </c>
       <c r="D2" t="n">
-        <v>2547817942.406837</v>
-      </c>
-      <c r="E2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>linearization_heuristic</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>2000</v>
-      </c>
       <c r="G2" t="n">
-        <v>2393842452.029465</v>
-      </c>
-      <c r="H2" t="inlineStr">
+        <v>0.3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-585238791.2923861</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>linearization_heuristic</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
+      <c r="M2" t="n">
+        <v>11159709000</v>
       </c>
     </row>
     <row r="3">
@@ -522,251 +546,44 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1350.430198388328</v>
+        <v>0.05077243387518601</v>
       </c>
       <c r="C3" t="n">
         <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>2547815578.340126</v>
-      </c>
-      <c r="E3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>linearization_heuristic_Prop_Bouncing</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>2000</v>
-      </c>
       <c r="G3" t="n">
-        <v>2347016898.358102</v>
-      </c>
-      <c r="H3" t="inlineStr">
+        <v>0.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-585238791.2923861</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>linearization_heuristic</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1405.982175051142</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2547817961.403079</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>linearization_heuristic</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2394164198.035594</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>linearization_heuristic</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>30000</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1403.086818726542</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2547815514.335291</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>linearization_heuristic_Prop_Bouncing</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2344793011.153336</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>linearization_heuristic</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>30000</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1337.049159246597</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2538224858.189995</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>linearization_heuristic</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G6" t="n">
-        <v>858394246.4570982</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>linearization_heuristic</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1115970.9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1337.693977623874</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2538224532.151768</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>linearization_heuristic_Prop_Bouncing</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G7" t="n">
-        <v>846154048.0121751</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>linearization_heuristic</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1115970.9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1338.349184681071</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2538226951.558583</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>linearization_heuristic</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G8" t="n">
-        <v>856620467.2392013</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>linearization_heuristic</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>30000</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1115970.9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1338.995568244155</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2538226625.282122</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>linearization_heuristic_Prop_Bouncing</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G9" t="n">
-        <v>844323333.4777417</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>linearization_heuristic</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>30000</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1115970.9</v>
+      <c r="M3" t="n">
+        <v>11159709000</v>
       </c>
     </row>
   </sheetData>
